--- a/biology/Botanique/Akène/Akène.xlsx
+++ b/biology/Botanique/Akène/Akène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ak%C3%A8ne</t>
+          <t>Akène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un akène (parfois écrit achaine ou achène) est un fruit sec, indéhiscent, à graine unique, dont le péricarpe, plus ou moins sclérifié, n'est pas soudé à la graine (à la différence du caryopse).
 Le terme est formé sur le verbe grec χαίνω / khaínō, « s'ouvrir », avec le préfixe privatif α- / a-, en référence au caractère indéhiscent de ce fruit.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ak%C3%A8ne</t>
+          <t>Akène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,161 @@
           <t>Types d'akènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'akène est aussi le fruit type des Fagacées : faîne (hêtre), châtaigne, dont les fleurs ont un ovaire pluriloculaire. Dans ce cas, la graine unique résulte de l'avortement des ovules non fécondés.
 Certains akènes portent des excroissances résultant de la transformation du style. C'est le cas de l'akène des Astéracées, qui porte une aigrette (=pappus) de poils servant à leur dispersion par le vent, ou de l'akène des clématites (Renonculacées) qui porte un long style plumeux blanchâtre très visible dans les haies l'hiver.
-Faux-fruit
-Dans certains cas, le réceptacle floral se transforme aussi et donne un faux-fruit portant les akènes, c'est le cas de la fraise.
-Polyakènes
-Chez les plantes dont les fleurs comportent plusieurs carpelles (dyalicarpellées), le fruit est un polyakène, ensemble d'akènes portés par le réceptacle floral. C'est le cas des Renonculacées ou des Lamiacées par exemple.
-Samares
-Lorsque les akènes sont munis d'excroissances en forme d'ailes, on obtient des samares (comme chez l'orme) ou des disamares (érable).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Akène</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ak%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types d'akènes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Faux-fruit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certains cas, le réceptacle floral se transforme aussi et donne un faux-fruit portant les akènes, c'est le cas de la fraise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Akène</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ak%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types d'akènes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Polyakènes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les plantes dont les fleurs comportent plusieurs carpelles (dyalicarpellées), le fruit est un polyakène, ensemble d'akènes portés par le réceptacle floral. C'est le cas des Renonculacées ou des Lamiacées par exemple.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Akène</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ak%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types d'akènes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Samares</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque les akènes sont munis d'excroissances en forme d'ailes, on obtient des samares (comme chez l'orme) ou des disamares (érable).
 Chez les Bétulacées (Bouleau, Aulne) dont les fleurs sont groupées en chatons, les fruits sont des samares groupées en sortes de cônes.
-Nucules
-Les nucules sont une forme d'akène dont la paroi du fruit est très dure : c'est le cas pour le noisetier, le chêne, le tilleul.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Akène</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ak%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types d'akènes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nucules</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nucules sont une forme d'akène dont la paroi du fruit est très dure : c'est le cas pour le noisetier, le chêne, le tilleul.
 </t>
         </is>
       </c>
